--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/C3-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/C3-Lrp1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>34.739995</v>
+        <v>0.09665433333333333</v>
       </c>
       <c r="H2">
-        <v>104.219985</v>
+        <v>0.289963</v>
       </c>
       <c r="I2">
-        <v>0.1827267341390227</v>
+        <v>0.0006230336790718351</v>
       </c>
       <c r="J2">
-        <v>0.1827267341390227</v>
+        <v>0.0006230336790718351</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.16653000000001</v>
+        <v>2.027115333333333</v>
       </c>
       <c r="N2">
-        <v>51.49959000000001</v>
+        <v>6.081346</v>
       </c>
       <c r="O2">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418616</v>
       </c>
       <c r="P2">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418615</v>
       </c>
       <c r="Q2">
-        <v>596.3651663673502</v>
+        <v>0.1959294811331111</v>
       </c>
       <c r="R2">
-        <v>5367.286497306151</v>
+        <v>1.763365330198</v>
       </c>
       <c r="S2">
-        <v>0.01023900844070841</v>
+        <v>4.109707440997521E-06</v>
       </c>
       <c r="T2">
-        <v>0.01023900844070841</v>
+        <v>4.10970744099752E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>34.739995</v>
+        <v>0.09665433333333333</v>
       </c>
       <c r="H3">
-        <v>104.219985</v>
+        <v>0.289963</v>
       </c>
       <c r="I3">
-        <v>0.1827267341390227</v>
+        <v>0.0006230336790718351</v>
       </c>
       <c r="J3">
-        <v>0.1827267341390227</v>
+        <v>0.0006230336790718351</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>769.332916</v>
       </c>
       <c r="O3">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643375</v>
       </c>
       <c r="P3">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643374</v>
       </c>
       <c r="Q3">
-        <v>8908.873885058472</v>
+        <v>24.78645336912311</v>
       </c>
       <c r="R3">
-        <v>80179.86496552626</v>
+        <v>223.078080322108</v>
       </c>
       <c r="S3">
-        <v>0.1529566783082897</v>
+        <v>0.0005199068116646414</v>
       </c>
       <c r="T3">
-        <v>0.1529566783082897</v>
+        <v>0.0005199068116646413</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>34.739995</v>
+        <v>0.09665433333333333</v>
       </c>
       <c r="H4">
-        <v>104.219985</v>
+        <v>0.289963</v>
       </c>
       <c r="I4">
-        <v>0.1827267341390227</v>
+        <v>0.0006230336790718351</v>
       </c>
       <c r="J4">
-        <v>0.1827267341390227</v>
+        <v>0.0006230336790718351</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>32.74538866666666</v>
+        <v>48.84026566666667</v>
       </c>
       <c r="N4">
-        <v>98.236166</v>
+        <v>146.520797</v>
       </c>
       <c r="O4">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="P4">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="Q4">
-        <v>1137.574638553057</v>
+        <v>4.720623317834556</v>
       </c>
       <c r="R4">
-        <v>10238.17174697751</v>
+        <v>42.485609860511</v>
       </c>
       <c r="S4">
-        <v>0.01953104739002452</v>
+        <v>9.901715996619619E-05</v>
       </c>
       <c r="T4">
-        <v>0.01953104739002452</v>
+        <v>9.901715996619616E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>154.8642143333333</v>
+        <v>154.8642143333334</v>
       </c>
       <c r="H5">
-        <v>464.592643</v>
+        <v>464.5926430000001</v>
       </c>
       <c r="I5">
-        <v>0.8145606273154508</v>
+        <v>0.9982544794956518</v>
       </c>
       <c r="J5">
-        <v>0.8145606273154506</v>
+        <v>0.9982544794956519</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.16653000000001</v>
+        <v>2.027115333333333</v>
       </c>
       <c r="N5">
-        <v>51.49959000000001</v>
+        <v>6.081346</v>
       </c>
       <c r="O5">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418616</v>
       </c>
       <c r="P5">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418615</v>
       </c>
       <c r="Q5">
-        <v>2658.481181279597</v>
+        <v>313.9276234597198</v>
       </c>
       <c r="R5">
-        <v>23926.33063151638</v>
+        <v>2825.348611137478</v>
       </c>
       <c r="S5">
-        <v>0.04564352981981364</v>
+        <v>0.006584770615457162</v>
       </c>
       <c r="T5">
-        <v>0.04564352981981364</v>
+        <v>0.006584770615457162</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>154.8642143333333</v>
+        <v>154.8642143333334</v>
       </c>
       <c r="H6">
-        <v>464.592643</v>
+        <v>464.5926430000001</v>
       </c>
       <c r="I6">
-        <v>0.8145606273154508</v>
+        <v>0.9982544794956518</v>
       </c>
       <c r="J6">
-        <v>0.8145606273154506</v>
+        <v>0.9982544794956519</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>769.332916</v>
       </c>
       <c r="O6">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643375</v>
       </c>
       <c r="P6">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643374</v>
       </c>
       <c r="Q6">
-        <v>39714.04586570411</v>
+        <v>39714.04586570412</v>
       </c>
       <c r="R6">
         <v>357426.412791337</v>
       </c>
       <c r="S6">
-        <v>0.6818514456680174</v>
+        <v>0.8330196602496837</v>
       </c>
       <c r="T6">
-        <v>0.6818514456680174</v>
+        <v>0.8330196602496837</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>154.8642143333333</v>
+        <v>154.8642143333334</v>
       </c>
       <c r="H7">
-        <v>464.592643</v>
+        <v>464.5926430000001</v>
       </c>
       <c r="I7">
-        <v>0.8145606273154508</v>
+        <v>0.9982544794956518</v>
       </c>
       <c r="J7">
-        <v>0.8145606273154506</v>
+        <v>0.9982544794956519</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>32.74538866666666</v>
+        <v>48.84026566666667</v>
       </c>
       <c r="N7">
-        <v>98.236166</v>
+        <v>146.520797</v>
       </c>
       <c r="O7">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="P7">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="Q7">
-        <v>5071.08888890297</v>
+        <v>7563.60937029961</v>
       </c>
       <c r="R7">
-        <v>45639.80000012674</v>
+        <v>68072.48433269649</v>
       </c>
       <c r="S7">
-        <v>0.08706565182761963</v>
+        <v>0.1586500486305111</v>
       </c>
       <c r="T7">
-        <v>0.08706565182761962</v>
+        <v>0.158650048630511</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.5157266666666667</v>
+        <v>0.174137</v>
       </c>
       <c r="H8">
-        <v>1.54718</v>
+        <v>0.522411</v>
       </c>
       <c r="I8">
-        <v>0.002712638545526686</v>
+        <v>0.001122486825276316</v>
       </c>
       <c r="J8">
-        <v>0.002712638545526686</v>
+        <v>0.001122486825276316</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.16653000000001</v>
+        <v>2.027115333333333</v>
       </c>
       <c r="N8">
-        <v>51.49959000000001</v>
+        <v>6.081346</v>
       </c>
       <c r="O8">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418616</v>
       </c>
       <c r="P8">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418615</v>
       </c>
       <c r="Q8">
-        <v>8.853237295133336</v>
+        <v>0.3529957828006666</v>
       </c>
       <c r="R8">
-        <v>79.67913565620002</v>
+        <v>3.176962045206</v>
       </c>
       <c r="S8">
-        <v>0.0001520014523058628</v>
+        <v>7.404242520455905E-06</v>
       </c>
       <c r="T8">
-        <v>0.0001520014523058628</v>
+        <v>7.404242520455905E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.5157266666666667</v>
+        <v>0.174137</v>
       </c>
       <c r="H9">
-        <v>1.54718</v>
+        <v>0.522411</v>
       </c>
       <c r="I9">
-        <v>0.002712638545526686</v>
+        <v>0.001122486825276316</v>
       </c>
       <c r="J9">
-        <v>0.002712638545526686</v>
+        <v>0.001122486825276316</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>769.332916</v>
       </c>
       <c r="O9">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643375</v>
       </c>
       <c r="P9">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643374</v>
       </c>
       <c r="Q9">
-        <v>132.2551667752089</v>
+        <v>44.65644199783066</v>
       </c>
       <c r="R9">
-        <v>1190.29650097688</v>
+        <v>401.9079779804759</v>
       </c>
       <c r="S9">
-        <v>0.002270692262573437</v>
+        <v>0.0009366886029891294</v>
       </c>
       <c r="T9">
-        <v>0.002270692262573437</v>
+        <v>0.0009366886029891295</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5157266666666667</v>
+        <v>0.174137</v>
       </c>
       <c r="H10">
-        <v>1.54718</v>
+        <v>0.522411</v>
       </c>
       <c r="I10">
-        <v>0.002712638545526686</v>
+        <v>0.001122486825276316</v>
       </c>
       <c r="J10">
-        <v>0.002712638545526686</v>
+        <v>0.001122486825276316</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>32.74538866666666</v>
+        <v>48.84026566666667</v>
       </c>
       <c r="N10">
-        <v>98.236166</v>
+        <v>146.520797</v>
       </c>
       <c r="O10">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="P10">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="Q10">
-        <v>16.88767014576444</v>
+        <v>8.504897342396333</v>
       </c>
       <c r="R10">
-        <v>151.98903131188</v>
+        <v>76.544076081567</v>
       </c>
       <c r="S10">
-        <v>0.0002899448306473861</v>
+        <v>0.0001783939797667306</v>
       </c>
       <c r="T10">
-        <v>0.0002899448306473861</v>
+        <v>0.0001783939797667306</v>
       </c>
     </row>
   </sheetData>
